--- a/doc/backLog/backlog_site_V1.xlsx
+++ b/doc/backLog/backlog_site_V1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://auvencecom-my.sharepoint.com/personal/jonathan_berenguer_ynov_com/Documents/B2/Projet_uf/ProjetUF2020_2021/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://auvencecom-my.sharepoint.com/personal/jonathan_berenguer_ynov_com/Documents/B2/Projet_uf/ProjetUF2020_2021/doc/backLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{38BF9074-37DF-4142-9CD7-540378877D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F2ED325-1FF1-44DD-A3BF-7E7AD44634B9}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{38BF9074-37DF-4142-9CD7-540378877D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA19D1DD-A0F5-4128-ADA6-6A0D054B2453}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{288C5752-F91D-4169-A5AA-D5AD8174C2FD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>User story créée</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Compte admin</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
   <si>
     <t>avoir une interface pratique</t>
@@ -499,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B748B5-E75E-455A-825F-29C2F7C6913A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,10 +521,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -538,7 +535,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -555,8 +552,8 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
+      <c r="G2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -578,8 +575,8 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
+      <c r="G3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -601,8 +598,8 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -624,8 +621,8 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
+      <c r="G5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -647,8 +644,8 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
-        <v>27</v>
+      <c r="G6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -670,8 +667,8 @@
       <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
+      <c r="G7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -693,8 +690,8 @@
       <c r="F8" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
+      <c r="G8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -716,8 +713,8 @@
       <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
-        <v>27</v>
+      <c r="G9">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -739,8 +736,8 @@
       <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
-        <v>27</v>
+      <c r="G10">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -762,8 +759,8 @@
       <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
-        <v>27</v>
+      <c r="G11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -785,8 +782,8 @@
       <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
+      <c r="G12">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -808,8 +805,8 @@
       <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="G13" t="s">
-        <v>27</v>
+      <c r="G13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -831,8 +828,8 @@
       <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="G14" t="s">
-        <v>27</v>
+      <c r="G14">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -854,8 +851,8 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="G15" t="s">
-        <v>27</v>
+      <c r="G15">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -877,8 +874,8 @@
       <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
-        <v>27</v>
+      <c r="G16">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -900,8 +897,8 @@
       <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="G17" t="s">
-        <v>27</v>
+      <c r="G17">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -923,8 +920,8 @@
       <c r="F18" t="s">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
-        <v>27</v>
+      <c r="G18">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -937,6 +934,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F1719C15C788A49B976C8E6DF5FE862" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="5399394c13bde1c891a0b3a385a2a767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1927ae0c-e5fb-40db-85d7-074a09ff2155" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b30653cb07eb81ffa82d4a1633ecd108" ns2:_="">
     <xsd:import namespace="1927ae0c-e5fb-40db-85d7-074a09ff2155"/>
@@ -1084,7 +1087,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1093,13 +1096,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86467EE2-8D7F-43A3-B629-3DC5F34CD41A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1927ae0c-e5fb-40db-85d7-074a09ff2155"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{517158FA-B827-4720-B356-0480EBD6F0C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1117,26 +1130,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58DAF85-4393-489B-8E03-55F5E1DA6BF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86467EE2-8D7F-43A3-B629-3DC5F34CD41A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1927ae0c-e5fb-40db-85d7-074a09ff2155"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/backLog/backlog_site_V1.xlsx
+++ b/doc/backLog/backlog_site_V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://auvencecom-my.sharepoint.com/personal/jonathan_berenguer_ynov_com/Documents/B2/Projet_uf/ProjetUF2020_2021/doc/backLog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clément\Desktop\dev\ynov\ProjetUF2020_2021\doc\backLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{38BF9074-37DF-4142-9CD7-540378877D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA19D1DD-A0F5-4128-ADA6-6A0D054B2453}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5021E-401A-4414-8B5A-129770E816F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{288C5752-F91D-4169-A5AA-D5AD8174C2FD}"/>
+    <workbookView xWindow="57480" yWindow="7575" windowWidth="25440" windowHeight="15540" xr2:uid="{288C5752-F91D-4169-A5AA-D5AD8174C2FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -198,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,435 +497,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B748B5-E75E-455A-825F-29C2F7C6913A}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1"/>
-    <col min="2" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="2" max="3" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
         <v>60</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>70</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>60</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>70</v>
       </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>60</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10">
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>90</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>70</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>70</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="2">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2">
         <v>70</v>
       </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2">
         <v>70</v>
       </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2">
         <v>80</v>
       </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
         <v>5</v>
       </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
